--- a/SALT/nacl_transport.xlsx
+++ b/SALT/nacl_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD89F85F-C344-654F-9D3A-33F04BAEA4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE374583-0A5F-4B48-A09C-16F4448A7CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="3100" windowWidth="27240" windowHeight="15980" activeTab="2" xr2:uid="{89D37278-9B58-8249-BAF7-69A5BF39A451}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="viscosity_nacl" sheetId="2" r:id="rId2"/>
     <sheet name="kappa_nacl" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6544,7 +6544,7 @@
   <dimension ref="B1:P108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6842,7 +6842,7 @@
         <v>1397.29</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>1/E16</f>
         <v>7.1567104895905651E-4</v>
       </c>
       <c r="G16">
@@ -7020,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2627D-EEB9-0043-A730-B67B65EF9F63}">
   <dimension ref="B3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7385,7 +7385,7 @@
         <v>1374.45</v>
       </c>
       <c r="G27">
-        <f>D27*$O$25</f>
+        <f t="shared" ref="G27:G46" si="0">D27*$O$25</f>
         <v>3.2657224999999999</v>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
         <v>1336.39</v>
       </c>
       <c r="G28">
-        <f>D28*$O$25</f>
+        <f t="shared" si="0"/>
         <v>9.7971674999999987</v>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
         <v>1285.18</v>
       </c>
       <c r="G29">
-        <f>D29*$O$25</f>
+        <f t="shared" si="0"/>
         <v>16.328612499999998</v>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
         <v>1317.76</v>
       </c>
       <c r="G30">
-        <f>D30*$O$25</f>
+        <f t="shared" si="0"/>
         <v>22.860057499999996</v>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
         <v>1197.51</v>
       </c>
       <c r="G31">
-        <f>D31*$O$25</f>
+        <f t="shared" si="0"/>
         <v>29.391502499999998</v>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
         <v>1189</v>
       </c>
       <c r="G32">
-        <f>D32*$O$25</f>
+        <f t="shared" si="0"/>
         <v>35.922947499999999</v>
       </c>
       <c r="J32" t="s">
@@ -7502,7 +7502,7 @@
         <v>1170.07</v>
       </c>
       <c r="G33">
-        <f>D33*$O$25</f>
+        <f t="shared" si="0"/>
         <v>42.454392499999997</v>
       </c>
       <c r="K33">
@@ -7527,7 +7527,7 @@
         <v>1156.95</v>
       </c>
       <c r="G34">
-        <f>D34*$O$25</f>
+        <f t="shared" si="0"/>
         <v>48.985837499999995</v>
       </c>
       <c r="J34" t="s">
@@ -7555,7 +7555,7 @@
         <v>1076.6400000000001</v>
       </c>
       <c r="G35">
-        <f>D35*$O$25</f>
+        <f t="shared" si="0"/>
         <v>55.517282499999993</v>
       </c>
       <c r="K35">
@@ -7580,7 +7580,7 @@
         <v>1111.47</v>
       </c>
       <c r="G36">
-        <f>D36*$O$25</f>
+        <f t="shared" si="0"/>
         <v>62.048727499999991</v>
       </c>
       <c r="K36">
@@ -7605,7 +7605,7 @@
         <v>1122.52</v>
       </c>
       <c r="G37">
-        <f>D37*$O$25</f>
+        <f t="shared" si="0"/>
         <v>68.580172500000003</v>
       </c>
     </row>
@@ -7623,7 +7623,7 @@
         <v>1127.6500000000001</v>
       </c>
       <c r="G38">
-        <f>D38*$O$25</f>
+        <f t="shared" si="0"/>
         <v>75.11161749999998</v>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
         <v>1179.2</v>
       </c>
       <c r="G39">
-        <f>D39*$O$25</f>
+        <f t="shared" si="0"/>
         <v>81.643062499999985</v>
       </c>
       <c r="J39" t="s">
@@ -7665,7 +7665,7 @@
         <v>1205.0899999999999</v>
       </c>
       <c r="G40">
-        <f>D40*$O$25</f>
+        <f t="shared" si="0"/>
         <v>88.174507500000004</v>
       </c>
       <c r="J40" t="s">
@@ -7693,7 +7693,7 @@
         <v>1220.24</v>
       </c>
       <c r="G41">
-        <f>D41*$O$25</f>
+        <f t="shared" si="0"/>
         <v>94.705952499999981</v>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
         <v>1250.95</v>
       </c>
       <c r="G42">
-        <f>D42*$O$25</f>
+        <f t="shared" si="0"/>
         <v>101.2373975</v>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
         <v>1230.76</v>
       </c>
       <c r="G43">
-        <f>D43*$O$25</f>
+        <f t="shared" si="0"/>
         <v>107.76884249999998</v>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
         <v>1291.29</v>
       </c>
       <c r="G44">
-        <f>D44*$O$25</f>
+        <f t="shared" si="0"/>
         <v>114.3002875</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
         <v>1349.94</v>
       </c>
       <c r="G45">
-        <f>D45*$O$25</f>
+        <f t="shared" si="0"/>
         <v>120.8317325</v>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
         <v>1354.36</v>
       </c>
       <c r="G46">
-        <f>D46*$O$25</f>
+        <f t="shared" si="0"/>
         <v>127.36317749999998</v>
       </c>
     </row>
